--- a/Saunacomparison.xlsx
+++ b/Saunacomparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laura.kukkonen/Documents/SuomiSauna/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3865CFB2-1220-6A49-81E9-93FDAFA457D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{599941C9-44B2-5447-BA84-78E46826B8F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2300" yWindow="2320" windowWidth="26840" windowHeight="15940" xr2:uid="{F28D0050-6E5F-BA4C-A121-C3E52EE298C2}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
   <si>
     <t>Summer cottages</t>
   </si>
@@ -100,6 +100,9 @@
   </si>
   <si>
     <t>Lakes (over 500m2)</t>
+  </si>
+  <si>
+    <t>Saunas in homes</t>
   </si>
 </sst>
 </file>
@@ -477,7 +480,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -566,7 +569,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B7" s="6">
         <v>1750000</v>
@@ -606,18 +609,18 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B12" s="5">
-        <v>5563970</v>
+        <v>168000</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B13" s="5">
-        <v>168000</v>
+        <v>5563970</v>
       </c>
     </row>
   </sheetData>
@@ -630,7 +633,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
